--- a/data/plinko_online_experiment.xlsx
+++ b/data/plinko_online_experiment.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanford/Documents/GitHub.nosync/plinko_kids/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanford/Documents/GitHub.nosync/private/whats-that-sound/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15C070D-90DF-7D4D-88C3-429ED738D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A5F6A4-A6ED-1042-B0E2-DDDE7C1081C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13700" yWindow="880" windowWidth="15100" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="9_year_old" sheetId="2" r:id="rId2"/>
-    <sheet name="3s_summer_pilot" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="204">
   <si>
     <t>Test_Date</t>
   </si>
@@ -550,54 +548,6 @@
   </si>
   <si>
     <t>Plinkokids_20210909_1_online_JO</t>
-  </si>
-  <si>
-    <t>heard_sounds</t>
-  </si>
-  <si>
-    <t>recreated_sounds</t>
-  </si>
-  <si>
-    <t>recreate_beep</t>
-  </si>
-  <si>
-    <t>recreate_chick</t>
-  </si>
-  <si>
-    <t>recreate_boom</t>
-  </si>
-  <si>
-    <t>Plinkokids_20210628_2_online_JO</t>
-  </si>
-  <si>
-    <t>1st drop x2</t>
-  </si>
-  <si>
-    <t>Plinkokids_20210826_1_online_JO</t>
-  </si>
-  <si>
-    <t>Plinkokids_20210826_2_online_JO</t>
-  </si>
-  <si>
-    <t>indirect</t>
-  </si>
-  <si>
-    <t>boom sounds like a dinosaur</t>
-  </si>
-  <si>
-    <t>Plinkokids_20210826_3_online_JO</t>
-  </si>
-  <si>
-    <t>made nondescript animated faces with no sound to describe sounds</t>
-  </si>
-  <si>
-    <t>Plinkokids_20210826_4_online_JO</t>
-  </si>
-  <si>
-    <t>sibling inteference (sister screamed answers), child didn't speak English and didn't respond often</t>
-  </si>
-  <si>
-    <t>3s</t>
   </si>
   <si>
     <t>crunch</t>
@@ -1526,8 +1476,8 @@
   <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1606,13 +1556,13 @@
         <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="Y1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="Z1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -3036,7 +2986,7 @@
         <v>76</v>
       </c>
       <c r="Z20" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -3486,7 +3436,7 @@
         <v>96</v>
       </c>
       <c r="Z26" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -3859,7 +3809,7 @@
         <v>55</v>
       </c>
       <c r="X31" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="Y31" t="s">
         <v>76</v>
@@ -4244,7 +4194,7 @@
         <v>76</v>
       </c>
       <c r="Z36" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -5206,7 +5156,7 @@
         <v>31</v>
       </c>
       <c r="Y49" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="Z49" t="s">
         <v>31</v>
@@ -5280,10 +5230,10 @@
         <v>55</v>
       </c>
       <c r="X50" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="Y50" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="Z50" t="s">
         <v>31</v>
@@ -5363,7 +5313,7 @@
         <v>76</v>
       </c>
       <c r="Z51" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
@@ -5431,13 +5381,13 @@
         <v>30</v>
       </c>
       <c r="X52" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="Y52" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="Z52" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
@@ -5878,7 +5828,7 @@
         <v>40</v>
       </c>
       <c r="Y58" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="Z58" t="s">
         <v>61</v>
@@ -5949,13 +5899,13 @@
         <v>30</v>
       </c>
       <c r="X59" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="Y59" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="Z59" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
@@ -6023,13 +5973,13 @@
         <v>30</v>
       </c>
       <c r="X60" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="Y60" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="Z60" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
@@ -6174,10 +6124,10 @@
         <v>30</v>
       </c>
       <c r="X62" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="Y62" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="Z62" t="s">
         <v>50</v>
@@ -6248,13 +6198,13 @@
         <v>30</v>
       </c>
       <c r="X63" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Y63" t="s">
         <v>114</v>
       </c>
       <c r="Z63" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
@@ -6325,13 +6275,13 @@
         <v>30</v>
       </c>
       <c r="X64" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Y64" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Z64" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
@@ -6476,10 +6426,10 @@
         <v>30</v>
       </c>
       <c r="X66" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="Y66" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="Z66" t="s">
         <v>61</v>
@@ -6553,10 +6503,10 @@
         <v>31</v>
       </c>
       <c r="Y67" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="Z67" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
@@ -6929,13 +6879,13 @@
         <v>30</v>
       </c>
       <c r="X72" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Y72" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Z72" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
@@ -7311,506 +7261,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E93EC9E-6C46-FE45-ACCA-552A4C84592C}">
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44375</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F44A47D-4900-CE46-BE88-AFFEB1FB0A90}">
-  <dimension ref="A1:Y11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44434</v>
-      </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44434</v>
-      </c>
-      <c r="B3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" t="s">
-        <v>185</v>
-      </c>
-      <c r="X3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44434</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" t="s">
-        <v>185</v>
-      </c>
-      <c r="X4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44434</v>
-      </c>
-      <c r="B5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N5" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" t="s">
-        <v>190</v>
-      </c>
-      <c r="U5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>